--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/53.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/53.xlsx
@@ -479,13 +479,13 @@
         <v>-10.75686131360146</v>
       </c>
       <c r="E2" t="n">
-        <v>-16.81923489336774</v>
+        <v>-17.85125535290482</v>
       </c>
       <c r="F2" t="n">
-        <v>3.030250322471752</v>
+        <v>2.161341799035559</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.25434980757736</v>
+        <v>-8.975918512940899</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-10.13467581830359</v>
       </c>
       <c r="E3" t="n">
-        <v>-17.37317892741667</v>
+        <v>-18.32002799832523</v>
       </c>
       <c r="F3" t="n">
-        <v>2.937192965766892</v>
+        <v>2.102991502078928</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.17566124205436</v>
+        <v>-8.97501404667052</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.477497837348565</v>
       </c>
       <c r="E4" t="n">
-        <v>-17.90652068652843</v>
+        <v>-18.75556028605748</v>
       </c>
       <c r="F4" t="n">
-        <v>3.015754417111349</v>
+        <v>2.257215223695761</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.25037504499455</v>
+        <v>-9.066477587136765</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.833496586224618</v>
       </c>
       <c r="E5" t="n">
-        <v>-18.31167268558967</v>
+        <v>-19.24157156969062</v>
       </c>
       <c r="F5" t="n">
-        <v>3.389294097771118</v>
+        <v>2.671573222687403</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.937747500889676</v>
+        <v>-8.849415460259474</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.208251185111811</v>
       </c>
       <c r="E6" t="n">
-        <v>-19.00559876425211</v>
+        <v>-19.72403832334526</v>
       </c>
       <c r="F6" t="n">
-        <v>3.500093660396012</v>
+        <v>2.807820066054589</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.656272708540783</v>
+        <v>-8.645856770348603</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.624273950441213</v>
       </c>
       <c r="E7" t="n">
-        <v>-19.63717044933392</v>
+        <v>-20.38162930297279</v>
       </c>
       <c r="F7" t="n">
-        <v>3.482415011565247</v>
+        <v>2.938957897245849</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.375853941675143</v>
+        <v>-8.350824761957753</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.088390146435819</v>
       </c>
       <c r="E8" t="n">
-        <v>-20.18059334060525</v>
+        <v>-20.94016900347662</v>
       </c>
       <c r="F8" t="n">
-        <v>3.762887557506424</v>
+        <v>3.175932949092083</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.194696681228475</v>
+        <v>-8.240455431937148</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.608988291180438</v>
       </c>
       <c r="E9" t="n">
-        <v>-20.6542941049475</v>
+        <v>-21.34539433764087</v>
       </c>
       <c r="F9" t="n">
-        <v>4.103098878354435</v>
+        <v>3.520251035708302</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.389948948472458</v>
+        <v>-8.578989823429808</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-6.185228298820667</v>
       </c>
       <c r="E10" t="n">
-        <v>-21.30402356153303</v>
+        <v>-21.98459287343506</v>
       </c>
       <c r="F10" t="n">
-        <v>4.422160355496171</v>
+        <v>3.85522134119498</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.944726649129981</v>
+        <v>-8.225411957807651</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-5.814567952279935</v>
       </c>
       <c r="E11" t="n">
-        <v>-22.30025649080429</v>
+        <v>-22.92191326995999</v>
       </c>
       <c r="F11" t="n">
-        <v>4.546766473513232</v>
+        <v>3.970098335546881</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.760122638842139</v>
+        <v>-7.985356831635261</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-5.4901856065504</v>
       </c>
       <c r="E12" t="n">
-        <v>-23.11787933220655</v>
+        <v>-23.78421185611212</v>
       </c>
       <c r="F12" t="n">
-        <v>4.914884245557594</v>
+        <v>4.437125605515797</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.335590616560447</v>
+        <v>-7.586746323761951</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-5.201999263789353</v>
       </c>
       <c r="E13" t="n">
-        <v>-23.77021462945214</v>
+        <v>-24.36599389526126</v>
       </c>
       <c r="F13" t="n">
-        <v>5.734213350356402</v>
+        <v>5.255330238735215</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.049969946388408</v>
+        <v>-7.327951634268675</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-4.948277432178375</v>
       </c>
       <c r="E14" t="n">
-        <v>-24.94660257276235</v>
+        <v>-25.53149402027885</v>
       </c>
       <c r="F14" t="n">
-        <v>6.062500383456007</v>
+        <v>5.541518033703817</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.2063473664679</v>
+        <v>-6.641525292140082</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.723839336839532</v>
       </c>
       <c r="E15" t="n">
-        <v>-25.49012324417102</v>
+        <v>-25.95633404999316</v>
       </c>
       <c r="F15" t="n">
-        <v>6.516669565364938</v>
+        <v>5.941111231957375</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.744301994496369</v>
+        <v>-6.25112831580319</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.527000497679816</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.40213325214593</v>
+        <v>-26.95753909924807</v>
       </c>
       <c r="F16" t="n">
-        <v>6.736528204170103</v>
+        <v>6.236348578636636</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.585428827349101</v>
+        <v>-6.002282755284086</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.35598548607896</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.47500625306295</v>
+        <v>-28.0135645825017</v>
       </c>
       <c r="F17" t="n">
-        <v>7.197771779015461</v>
+        <v>6.667906103786085</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.276497372435612</v>
+        <v>-5.760242692323728</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.209522601747002</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.08159511305482</v>
+        <v>-28.52853834281445</v>
       </c>
       <c r="F18" t="n">
-        <v>7.523526306558003</v>
+        <v>7.018516342240024</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.237556432740634</v>
+        <v>-5.625262101735073</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.085798620320429</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.15353920266713</v>
+        <v>-29.54742204090013</v>
       </c>
       <c r="F19" t="n">
-        <v>7.799158735700934</v>
+        <v>7.16712259496677</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.901906555299456</v>
+        <v>-5.327937149123641</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.981369967567238</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.85846554678012</v>
+        <v>-30.16833813551549</v>
       </c>
       <c r="F20" t="n">
-        <v>8.125265271737895</v>
+        <v>7.381182871627774</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.806365583106204</v>
+        <v>-5.225698237522716</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.896584281134717</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.53328538660666</v>
+        <v>-30.87595587790873</v>
       </c>
       <c r="F21" t="n">
-        <v>8.423641360825714</v>
+        <v>7.683611947408266</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.768030880262724</v>
+        <v>-5.137710780938847</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.829350321209827</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.84592270872527</v>
+        <v>-31.14419857317232</v>
       </c>
       <c r="F22" t="n">
-        <v>8.440723550818715</v>
+        <v>7.620499757763261</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.811293702028054</v>
+        <v>-5.225942687866061</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-3.78049554667111</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.1642752798713</v>
+        <v>-31.55689430982921</v>
       </c>
       <c r="F23" t="n">
-        <v>8.553102262661621</v>
+        <v>7.743453391459305</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.613983162893101</v>
+        <v>-4.841764528263885</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-3.750536696371953</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.29350395388103</v>
+        <v>-31.64997855607184</v>
       </c>
       <c r="F24" t="n">
-        <v>8.999815709098508</v>
+        <v>8.006173953466714</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.647560862055072</v>
+        <v>-5.024779611319978</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-3.740349901547754</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.35178824924496</v>
+        <v>-31.80507740991785</v>
       </c>
       <c r="F25" t="n">
-        <v>8.920516017717148</v>
+        <v>7.948170775997634</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.552870577056663</v>
+        <v>-4.892605310672933</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-3.750559033814767</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.25784353779375</v>
+        <v>-31.64682759114611</v>
       </c>
       <c r="F26" t="n">
-        <v>8.512987961318585</v>
+        <v>7.579216983779031</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.539621368447325</v>
+        <v>-4.900193049330385</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.780375253420972</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.4175991706805</v>
+        <v>-31.86235701437062</v>
       </c>
       <c r="F27" t="n">
-        <v>8.576114817984191</v>
+        <v>7.611327980880929</v>
       </c>
       <c r="G27" t="n">
-        <v>-5.184860363163375</v>
+        <v>-4.48054514490874</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.829979096755998</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.09096217739848</v>
+        <v>-31.50798468513259</v>
       </c>
       <c r="F28" t="n">
-        <v>8.479053364655329</v>
+        <v>7.541483628780182</v>
       </c>
       <c r="G28" t="n">
-        <v>-5.407510624889548</v>
+        <v>-4.643749972140095</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.896701694869882</v>
       </c>
       <c r="E29" t="n">
-        <v>-30.99453873946575</v>
+        <v>-31.31428223306542</v>
       </c>
       <c r="F29" t="n">
-        <v>8.085141192381124</v>
+        <v>7.17255917060278</v>
       </c>
       <c r="G29" t="n">
-        <v>-5.080934744193364</v>
+        <v>-4.322908896498801</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.979749860296956</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.17126411518756</v>
+        <v>-31.4543131677476</v>
       </c>
       <c r="F30" t="n">
-        <v>7.883626107340624</v>
+        <v>6.958909570518596</v>
       </c>
       <c r="G30" t="n">
-        <v>-5.178871329751404</v>
+        <v>-4.438763692224085</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-4.076723066256397</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.77731038635499</v>
+        <v>-31.01145714772871</v>
       </c>
       <c r="F31" t="n">
-        <v>7.760995148097796</v>
+        <v>6.87850985259218</v>
       </c>
       <c r="G31" t="n">
-        <v>-5.148984830773953</v>
+        <v>-4.361077373108807</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-4.184452327250809</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.83040255642625</v>
+        <v>-31.01773707704926</v>
       </c>
       <c r="F32" t="n">
-        <v>7.502728471346147</v>
+        <v>6.634636412056729</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.245244486976642</v>
+        <v>-4.401548571953128</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-4.299167563219468</v>
       </c>
       <c r="E33" t="n">
-        <v>-30.39774500473174</v>
+        <v>-30.4902107916057</v>
       </c>
       <c r="F33" t="n">
-        <v>7.468295195982465</v>
+        <v>6.657140510665138</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.926217232882974</v>
+        <v>-4.043986165734437</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.415600114977245</v>
       </c>
       <c r="E34" t="n">
-        <v>-30.1324503806089</v>
+        <v>-30.12671068654715</v>
       </c>
       <c r="F34" t="n">
-        <v>7.379325049018346</v>
+        <v>6.543588437174171</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.881037920425812</v>
+        <v>-3.977084995767573</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.528161340999714</v>
       </c>
       <c r="E35" t="n">
-        <v>-29.69488915502688</v>
+        <v>-29.60511232192972</v>
       </c>
       <c r="F35" t="n">
-        <v>7.440251852593841</v>
+        <v>6.640850339784578</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.980015864446505</v>
+        <v>-4.047027128005658</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.630658663166579</v>
       </c>
       <c r="E36" t="n">
-        <v>-29.42725514111822</v>
+        <v>-29.30011407304067</v>
       </c>
       <c r="F36" t="n">
-        <v>7.404258984039613</v>
+        <v>6.561247529977468</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.924364299280413</v>
+        <v>-4.14087161481609</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.717512179011336</v>
       </c>
       <c r="E37" t="n">
-        <v>-29.20720583104525</v>
+        <v>-29.08480465512517</v>
       </c>
       <c r="F37" t="n">
-        <v>7.398920188540941</v>
+        <v>6.723543001931577</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.792630009251389</v>
+        <v>-3.973643134933265</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.783723259047161</v>
       </c>
       <c r="E38" t="n">
-        <v>-28.59115429826246</v>
+        <v>-28.38190724886194</v>
       </c>
       <c r="F38" t="n">
-        <v>7.103516615628207</v>
+        <v>6.377939106509359</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.673230683547592</v>
+        <v>-3.90975359319642</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.824449393544966</v>
       </c>
       <c r="E39" t="n">
-        <v>-28.08629833766079</v>
+        <v>-27.80994722450842</v>
       </c>
       <c r="F39" t="n">
-        <v>7.081652976919363</v>
+        <v>6.339051945889918</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.64667359824651</v>
+        <v>-3.927935809734477</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.836211916973386</v>
       </c>
       <c r="E40" t="n">
-        <v>-27.68321927751112</v>
+        <v>-27.44141633138381</v>
       </c>
       <c r="F40" t="n">
-        <v>7.067836643513462</v>
+        <v>6.427718974428287</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.441076192472136</v>
+        <v>-3.716950718392762</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.816761748462167</v>
       </c>
       <c r="E41" t="n">
-        <v>-27.51857708226089</v>
+        <v>-27.21445885460788</v>
       </c>
       <c r="F41" t="n">
-        <v>6.862894364659254</v>
+        <v>6.289320968039659</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.637056921739289</v>
+        <v>-4.042881250182514</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.765268481072419</v>
       </c>
       <c r="E42" t="n">
-        <v>-26.94499879663443</v>
+        <v>-26.59510724218993</v>
       </c>
       <c r="F42" t="n">
-        <v>6.698633511944645</v>
+        <v>6.15498083735057</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.427015408722888</v>
+        <v>-3.855172720534182</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.684450165348974</v>
       </c>
       <c r="E43" t="n">
-        <v>-26.54234019107532</v>
+        <v>-26.13797043311278</v>
       </c>
       <c r="F43" t="n">
-        <v>6.713818767273283</v>
+        <v>6.04344792369564</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.406740697245793</v>
+        <v>-3.806649327380051</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.577742181773035</v>
       </c>
       <c r="E44" t="n">
-        <v>-25.88203581263665</v>
+        <v>-25.40204289645668</v>
       </c>
       <c r="F44" t="n">
-        <v>6.74336303577005</v>
+        <v>6.157034220234674</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.454770300706365</v>
+        <v>-3.940710784677726</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.451437331306455</v>
       </c>
       <c r="E45" t="n">
-        <v>-25.43382144109162</v>
+        <v>-24.93500584847402</v>
       </c>
       <c r="F45" t="n">
-        <v>6.68094019609328</v>
+        <v>6.153582581386632</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.410798572945332</v>
+        <v>-4.041610108397117</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.312638482159152</v>
       </c>
       <c r="E46" t="n">
-        <v>-24.86649130624108</v>
+        <v>-24.41269368885403</v>
       </c>
       <c r="F46" t="n">
-        <v>6.610470051113568</v>
+        <v>6.076003820422426</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.378360012383351</v>
+        <v>-4.051314787027943</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.16938227423289</v>
       </c>
       <c r="E47" t="n">
-        <v>-24.82014841014959</v>
+        <v>-24.38241606932723</v>
       </c>
       <c r="F47" t="n">
-        <v>6.792277549473535</v>
+        <v>6.255014806854517</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.471099583641861</v>
+        <v>-4.164534408051959</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.030326717349396</v>
       </c>
       <c r="E48" t="n">
-        <v>-24.40938383120513</v>
+        <v>-23.8560313669871</v>
       </c>
       <c r="F48" t="n">
-        <v>6.711027144352275</v>
+        <v>6.21242666803682</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.608250893279425</v>
+        <v>-4.258608678185136</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.902711362397476</v>
       </c>
       <c r="E49" t="n">
-        <v>-23.70794334898824</v>
+        <v>-23.11347433701945</v>
       </c>
       <c r="F49" t="n">
-        <v>6.894482238026391</v>
+        <v>6.356041244752447</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.723387004995272</v>
+        <v>-4.438353015647264</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.79592490334051</v>
       </c>
       <c r="E50" t="n">
-        <v>-23.51573204401548</v>
+        <v>-22.96912640927379</v>
       </c>
       <c r="F50" t="n">
-        <v>6.781423954228983</v>
+        <v>6.220009517687406</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.932103597150739</v>
+        <v>-4.611624308017597</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.71559792266752</v>
       </c>
       <c r="E51" t="n">
-        <v>-23.08637946096301</v>
+        <v>-22.51534345890735</v>
       </c>
       <c r="F51" t="n">
-        <v>6.797073665209978</v>
+        <v>6.309106778830063</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.673318685671197</v>
+        <v>-4.383943258225368</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.667308008657863</v>
       </c>
       <c r="E52" t="n">
-        <v>-22.44825650667954</v>
+        <v>-21.89683520017394</v>
       </c>
       <c r="F52" t="n">
-        <v>6.736122416600149</v>
+        <v>6.226761236170615</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.851733213265524</v>
+        <v>-4.576007892992122</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.653312863919847</v>
       </c>
       <c r="E53" t="n">
-        <v>-22.04124668500887</v>
+        <v>-21.47026935103561</v>
       </c>
       <c r="F53" t="n">
-        <v>7.086502871731343</v>
+        <v>6.583164947761848</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.892874206050613</v>
+        <v>-4.608158002148954</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.67303357863694</v>
       </c>
       <c r="E54" t="n">
-        <v>-21.42957325787541</v>
+        <v>-20.86876016917846</v>
       </c>
       <c r="F54" t="n">
-        <v>7.113539079705382</v>
+        <v>6.709384438044991</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.779952814445479</v>
+        <v>-4.603112547062298</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.723558531793581</v>
       </c>
       <c r="E55" t="n">
-        <v>-21.18506913545412</v>
+        <v>-20.57137165947776</v>
       </c>
       <c r="F55" t="n">
-        <v>7.025805851478593</v>
+        <v>6.616019073907516</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.172153834316263</v>
+        <v>-5.043084053029708</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.799216447299625</v>
       </c>
       <c r="E56" t="n">
-        <v>-20.65601503536466</v>
+        <v>-20.02188151068459</v>
       </c>
       <c r="F56" t="n">
-        <v>6.9274781453712</v>
+        <v>6.488269324475029</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.342349941367306</v>
+        <v>-5.089221610832785</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.895162412892883</v>
       </c>
       <c r="E57" t="n">
-        <v>-20.24359308309231</v>
+        <v>-19.78017878919804</v>
       </c>
       <c r="F57" t="n">
-        <v>6.972457008546818</v>
+        <v>6.521108783600097</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.502640920505979</v>
+        <v>-5.331731018452366</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.003209961022346</v>
       </c>
       <c r="E58" t="n">
-        <v>-19.95681860729968</v>
+        <v>-19.40866804638804</v>
       </c>
       <c r="F58" t="n">
-        <v>6.722262082132445</v>
+        <v>6.197818315518479</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.910560097453895</v>
+        <v>-5.711386846702647</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.117307333561706</v>
       </c>
       <c r="E59" t="n">
-        <v>-19.47839506232399</v>
+        <v>-18.84893542820869</v>
       </c>
       <c r="F59" t="n">
-        <v>6.890204357017841</v>
+        <v>6.356926154995359</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.872768074372643</v>
+        <v>-5.518618194947058</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.230324117854412</v>
       </c>
       <c r="E60" t="n">
-        <v>-18.92890491353081</v>
+        <v>-18.23914915772585</v>
       </c>
       <c r="F60" t="n">
-        <v>6.704373206006403</v>
+        <v>6.157650235099905</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.253748823483857</v>
+        <v>-5.905094187776684</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.33518323008493</v>
       </c>
       <c r="E61" t="n">
-        <v>-18.69865713513346</v>
+        <v>-17.97449254899914</v>
       </c>
       <c r="F61" t="n">
-        <v>6.519153180853331</v>
+        <v>5.892314054418698</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.259649854772223</v>
+        <v>-5.918930077210054</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-4.425544774809556</v>
       </c>
       <c r="E62" t="n">
-        <v>-18.46289944599708</v>
+        <v>-17.72387716799422</v>
       </c>
       <c r="F62" t="n">
-        <v>6.473695195004756</v>
+        <v>5.93411506313082</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.354393918846168</v>
+        <v>-5.998087987392274</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-4.495003863538914</v>
       </c>
       <c r="E63" t="n">
-        <v>-17.80191549560391</v>
+        <v>-17.18923982206273</v>
       </c>
       <c r="F63" t="n">
-        <v>6.493828125282711</v>
+        <v>5.804727496397916</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.286011379798628</v>
+        <v>-5.913087714004091</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-4.539810317457698</v>
       </c>
       <c r="E64" t="n">
-        <v>-17.86425522216395</v>
+        <v>-17.25292402551117</v>
       </c>
       <c r="F64" t="n">
-        <v>6.259913591735166</v>
+        <v>5.667678855904557</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.622404386283579</v>
+        <v>-6.145701771725037</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-4.556838379401884</v>
       </c>
       <c r="E65" t="n">
-        <v>-17.50329006716588</v>
+        <v>-16.87042768427121</v>
       </c>
       <c r="F65" t="n">
-        <v>6.373925231871622</v>
+        <v>5.729744798080041</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.46733486647877</v>
+        <v>-6.030404322782581</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-4.546744359144149</v>
       </c>
       <c r="E66" t="n">
-        <v>-17.33852564674398</v>
+        <v>-16.83885936693154</v>
       </c>
       <c r="F66" t="n">
-        <v>6.395285302873174</v>
+        <v>5.743531797444742</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.561384691577613</v>
+        <v>-6.160349236298313</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-4.511595077624133</v>
       </c>
       <c r="E67" t="n">
-        <v>-17.18897092668506</v>
+        <v>-16.65396201623168</v>
       </c>
       <c r="F67" t="n">
-        <v>6.014583227153373</v>
+        <v>5.45875692546068</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.580671823667593</v>
+        <v>-6.128717361869374</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.454950718505836</v>
       </c>
       <c r="E68" t="n">
-        <v>-16.87174771612528</v>
+        <v>-16.49126564571449</v>
       </c>
       <c r="F68" t="n">
-        <v>6.000209546964643</v>
+        <v>5.331021843048793</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.713662588461413</v>
+        <v>-6.204897866869643</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.381859190422661</v>
       </c>
       <c r="E69" t="n">
-        <v>-16.9320487268218</v>
+        <v>-16.47579682798757</v>
       </c>
       <c r="F69" t="n">
-        <v>6.08625117881548</v>
+        <v>5.478968079848507</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.416596753213927</v>
+        <v>-5.863938527970994</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.297398383512996</v>
       </c>
       <c r="E70" t="n">
-        <v>-16.57034533178684</v>
+        <v>-16.27759160059597</v>
       </c>
       <c r="F70" t="n">
-        <v>6.026145728393628</v>
+        <v>5.4269832698326</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.259728078882094</v>
+        <v>-5.773511456960535</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.206879675631201</v>
       </c>
       <c r="E71" t="n">
-        <v>-16.75715917317853</v>
+        <v>-16.32031663160594</v>
       </c>
       <c r="F71" t="n">
-        <v>5.830135665085273</v>
+        <v>5.209613135522694</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.000982279457487</v>
+        <v>-5.524621895379629</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.115459605285531</v>
       </c>
       <c r="E72" t="n">
-        <v>-16.72990784890234</v>
+        <v>-16.30467669863868</v>
       </c>
       <c r="F72" t="n">
-        <v>5.846425835965833</v>
+        <v>5.180983111310041</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.96551253463802</v>
+        <v>-5.526689945284335</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.026945002034524</v>
       </c>
       <c r="E73" t="n">
-        <v>-16.58631771722105</v>
+        <v>-16.26473840154285</v>
       </c>
       <c r="F73" t="n">
-        <v>5.818499828742016</v>
+        <v>5.232063455055568</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.072620897078392</v>
+        <v>-5.524294331919545</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.943481513337928</v>
       </c>
       <c r="E74" t="n">
-        <v>-16.72598686539508</v>
+        <v>-16.45660747603493</v>
       </c>
       <c r="F74" t="n">
-        <v>5.699501401601306</v>
+        <v>5.174705626492922</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.638843762811363</v>
+        <v>-5.143797594488156</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.864784637825369</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.8832857723312</v>
+        <v>-16.71695686971188</v>
       </c>
       <c r="F75" t="n">
-        <v>5.650567331870354</v>
+        <v>5.100920734857441</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.624406525533363</v>
+        <v>-5.173004521511106</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.78872492598325</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.99330309385739</v>
+        <v>-16.80704659924853</v>
       </c>
       <c r="F76" t="n">
-        <v>5.515215176759813</v>
+        <v>4.977321752254964</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.455554895370722</v>
+        <v>-4.939212213135233</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.711597783075423</v>
       </c>
       <c r="E77" t="n">
-        <v>-17.16919000490152</v>
+        <v>-16.97474442379058</v>
       </c>
       <c r="F77" t="n">
-        <v>5.52335048418636</v>
+        <v>5.001233884841045</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.216873580127934</v>
+        <v>-4.651992837717714</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.627824867602267</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.53032138613306</v>
+        <v>-17.38990421990839</v>
       </c>
       <c r="F78" t="n">
-        <v>5.288917715910921</v>
+        <v>4.796252493931902</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.838542672738588</v>
+        <v>-4.062486167718843</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.534527380772467</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.77911316757662</v>
+        <v>-17.5935606899566</v>
       </c>
       <c r="F79" t="n">
-        <v>5.424660991570815</v>
+        <v>4.943308931481837</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.482789199060655</v>
+        <v>-3.819776310817717</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.427689484961397</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.14414597628796</v>
+        <v>-17.97733306198882</v>
       </c>
       <c r="F80" t="n">
-        <v>5.248011395455444</v>
+        <v>4.740126695099718</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.193619109903236</v>
+        <v>-3.430934038664504</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.30524601188644</v>
       </c>
       <c r="E81" t="n">
-        <v>-18.90445499018937</v>
+        <v>-18.86790477485232</v>
       </c>
       <c r="F81" t="n">
-        <v>5.22245655656208</v>
+        <v>4.692253539858887</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.925510862328487</v>
+        <v>-3.102162993885075</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.166611162338661</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.58121087673521</v>
+        <v>-19.59867929827069</v>
       </c>
       <c r="F82" t="n">
-        <v>5.055100962500714</v>
+        <v>4.586699881602193</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.653789638679088</v>
+        <v>-2.925606288900175</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.013320081669776</v>
       </c>
       <c r="E83" t="n">
-        <v>-20.21922138386074</v>
+        <v>-20.18711527576571</v>
       </c>
       <c r="F83" t="n">
-        <v>4.801591289430573</v>
+        <v>4.357899249237441</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.493527993581616</v>
+        <v>-2.751254526012254</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.849162392134239</v>
       </c>
       <c r="E84" t="n">
-        <v>-21.37993028214875</v>
+        <v>-21.42830700509688</v>
       </c>
       <c r="F84" t="n">
-        <v>4.538538274956214</v>
+        <v>4.112246210202432</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.030612378387774</v>
+        <v>-2.258867977424649</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.678676802916339</v>
       </c>
       <c r="E85" t="n">
-        <v>-22.20493063491318</v>
+        <v>-22.22720006119198</v>
       </c>
       <c r="F85" t="n">
-        <v>4.743685892098832</v>
+        <v>4.211365935422267</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.990859863552889</v>
+        <v>-2.28113251469658</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.510382701172143</v>
       </c>
       <c r="E86" t="n">
-        <v>-23.03062033764585</v>
+        <v>-23.13375882651028</v>
       </c>
       <c r="F86" t="n">
-        <v>4.405914185677413</v>
+        <v>3.887224780145805</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.678163873351876</v>
+        <v>-1.970494796386538</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-2.351622680652422</v>
       </c>
       <c r="E87" t="n">
-        <v>-23.76127263589255</v>
+        <v>-23.89089976396194</v>
       </c>
       <c r="F87" t="n">
-        <v>4.266391707709394</v>
+        <v>3.755206927718501</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.600912675847753</v>
+        <v>-1.935396616088955</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.211383230958776</v>
       </c>
       <c r="E88" t="n">
-        <v>-25.0283125445291</v>
+        <v>-25.13714183738663</v>
       </c>
       <c r="F88" t="n">
-        <v>4.219970587508037</v>
+        <v>3.889493279332054</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.476453228036699</v>
+        <v>-1.781133782417188</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.09774959713478</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.27263323825509</v>
+        <v>-26.49683087065464</v>
       </c>
       <c r="F89" t="n">
-        <v>3.653896927422289</v>
+        <v>3.397458739238866</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.384676791130971</v>
+        <v>-1.66032642273572</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.018074338482168</v>
       </c>
       <c r="E90" t="n">
-        <v>-27.66694866265803</v>
+        <v>-27.76199584515772</v>
       </c>
       <c r="F90" t="n">
-        <v>3.754331795489323</v>
+        <v>3.461499840188585</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.378805093883806</v>
+        <v>-1.687279517593022</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.978467485580447</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.35929794566811</v>
+        <v>-29.46796590129902</v>
       </c>
       <c r="F91" t="n">
-        <v>3.355887513849489</v>
+        <v>3.090634446285018</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.560979267758791</v>
+        <v>-1.887631018999196</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-1.982615981049997</v>
       </c>
       <c r="E92" t="n">
-        <v>-31.03592173809075</v>
+        <v>-31.11126377841335</v>
       </c>
       <c r="F92" t="n">
-        <v>3.118927129023855</v>
+        <v>2.786308435840164</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.720488005798758</v>
+        <v>-2.094460454504033</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.034037834985479</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.58642626487102</v>
+        <v>-32.69031032728267</v>
       </c>
       <c r="F93" t="n">
-        <v>2.783727040214432</v>
+        <v>2.526589724049041</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.064522530016696</v>
+        <v>-2.468650373077102</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.132286501928369</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.54367905145459</v>
+        <v>-34.66068031929017</v>
       </c>
       <c r="F94" t="n">
-        <v>2.273632508754861</v>
+        <v>1.961430308247406</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.918478116888213</v>
+        <v>-2.294694619745402</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.277771700592766</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.77470888907509</v>
+        <v>-36.89824675909173</v>
       </c>
       <c r="F95" t="n">
-        <v>1.779779258107181</v>
+        <v>1.59538058610775</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.030118588694216</v>
+        <v>-2.391462732662249</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.47191138410238</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.56511453831145</v>
+        <v>-38.66928949663167</v>
       </c>
       <c r="F96" t="n">
-        <v>1.50506596225523</v>
+        <v>1.359378446628032</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.338776259223157</v>
+        <v>-2.655513104537459</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.709448078466353</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.67161648202475</v>
+        <v>-40.73848831795042</v>
       </c>
       <c r="F97" t="n">
-        <v>1.030050055065774</v>
+        <v>0.8707124322661491</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.587895604126809</v>
+        <v>-2.923577351050406</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.995179725742724</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.42414210605625</v>
+        <v>-42.39123908984192</v>
       </c>
       <c r="F98" t="n">
-        <v>0.6638487737132438</v>
+        <v>0.4854978032081865</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.902806314438534</v>
+        <v>-3.203057428597598</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.315703379170837</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.9212048078365</v>
+        <v>-44.89880337837229</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3240872414969895</v>
+        <v>0.2676876582802586</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.085146714546994</v>
+        <v>-3.356019786442766</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.684650667347691</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.43105715158059</v>
+        <v>-47.46850083292257</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.4355813125048559</v>
+        <v>-0.5233780978209145</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.433346672615544</v>
+        <v>-3.779481116220604</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.070707112320032</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.31004182723171</v>
+        <v>-49.22143468902746</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.4137078957822784</v>
+        <v>-0.5407047381572611</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.844781045500771</v>
+        <v>-4.144704596199752</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.514060785053844</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.46199931229016</v>
+        <v>-51.38783063361563</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.8550727687067592</v>
+        <v>-0.9040801735407146</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.188571119375363</v>
+        <v>-4.408104730161662</v>
       </c>
     </row>
   </sheetData>
